--- a/Nile_EMODPS_framework/settings/settings_file_Nile.xlsx
+++ b/Nile_EMODPS_framework/settings/settings_file_Nile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasinsari/Documents/master-thesis-project/ZambeziSmashPython/settings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasinsari/Documents/master-thesis-project/Nile_EMODPS_framework/settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CB243B-D7E3-2441-879D-078D74327255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C9FFC8-4A62-9C43-9B82-0805FE3778DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{65B2DD87-E74E-094B-8E0A-FAA834E63631}"/>
   </bookViews>
@@ -337,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +362,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -375,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -386,6 +392,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,7 +710,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -769,7 +776,7 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>1308.3371999999999</v>
       </c>
       <c r="C4" t="s">

--- a/Nile_EMODPS_framework/settings/settings_file_Nile.xlsx
+++ b/Nile_EMODPS_framework/settings/settings_file_Nile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasinsari/Documents/master-thesis-project/Nile_EMODPS_framework/settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C9FFC8-4A62-9C43-9B82-0805FE3778DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7338117-67A9-A945-BC9C-3A2BBDD9158E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15700" xr2:uid="{65B2DD87-E74E-094B-8E0A-FAA834E63631}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="2" xr2:uid="{65B2DD87-E74E-094B-8E0A-FAA834E63631}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelParameters" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="89">
   <si>
     <t>Simulation Horizon</t>
   </si>
@@ -292,6 +292,15 @@
   </si>
   <si>
     <t>Roseires</t>
+  </si>
+  <si>
+    <t>Filling Time of GERD</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>GERD_filling_time</t>
   </si>
   <si>
     <t>half-an-hour</t>
@@ -381,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -393,6 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10871A19-541A-E94D-BB27-74C5363B6884}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -862,7 +872,7 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -872,6 +882,23 @@
       </c>
       <c r="E9" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -884,7 +911,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,8 +952,8 @@
       <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="6">
-        <v>58750000000</v>
+      <c r="B2" s="11">
+        <v>1000000000</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
@@ -1171,13 +1198,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22103061-AE41-8A4B-969C-CFE2C42F73B9}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>

--- a/Nile_EMODPS_framework/settings/settings_file_Nile.xlsx
+++ b/Nile_EMODPS_framework/settings/settings_file_Nile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasinsari/Documents/master-thesis-project/Nile_EMODPS_framework/settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7338117-67A9-A945-BC9C-3A2BBDD9158E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B50DEB-4F35-7742-92F8-DC0011A27CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="2" xr2:uid="{65B2DD87-E74E-094B-8E0A-FAA834E63631}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="1" xr2:uid="{65B2DD87-E74E-094B-8E0A-FAA834E63631}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelParameters" sheetId="4" r:id="rId1"/>
@@ -346,7 +346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,12 +371,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -390,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -401,7 +395,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -720,7 +713,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,8 +779,8 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="10">
-        <v>1308.3371999999999</v>
+      <c r="B4" s="6">
+        <v>1441.99</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
@@ -910,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C46D96C-8ADA-8E40-B2A8-24351E5FCFAE}">
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -952,7 +945,7 @@
       <c r="A2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1000000000</v>
       </c>
       <c r="C2" s="5">
@@ -1198,14 +1191,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22103061-AE41-8A4B-969C-CFE2C42F73B9}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>

--- a/Nile_EMODPS_framework/settings/settings_file_Nile.xlsx
+++ b/Nile_EMODPS_framework/settings/settings_file_Nile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasinsari/Documents/master-thesis-project/Nile_EMODPS_framework/settings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B50DEB-4F35-7742-92F8-DC0011A27CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F5240C-0C12-B447-9A17-8061047EB8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15580" activeTab="1" xr2:uid="{65B2DD87-E74E-094B-8E0A-FAA834E63631}"/>
   </bookViews>
@@ -276,9 +276,6 @@
     <t>[0.60]</t>
   </si>
   <si>
-    <t>[2344]</t>
-  </si>
-  <si>
     <t>[0,0,0, 0,1,0]</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>half-an-hour</t>
+  </si>
+  <si>
+    <t>[2544]</t>
   </si>
 </sst>
 </file>
@@ -831,7 +831,7 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -865,7 +865,7 @@
         <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -879,16 +879,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>5</v>
       </c>
       <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
         <v>86</v>
-      </c>
-      <c r="D10" t="s">
-        <v>87</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -904,7 +904,7 @@
   <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -946,13 +946,13 @@
         <v>58</v>
       </c>
       <c r="B2" s="10">
-        <v>1000000000</v>
+        <v>5000000000</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>77</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="6">
         <v>4571250000</v>
@@ -1295,7 +1295,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
         <v>49</v>
@@ -1309,7 +1309,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
@@ -1323,7 +1323,7 @@
         <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
         <v>51</v>
